--- a/data/trans_bre/IMC_inf_MED_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IMC_inf_MED_R2-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,02%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,55; 15,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,81; 15,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,78; 40,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,85; 36,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,73; 36,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,48; 161,2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-9,8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,91</t>
+          <t>-9,49</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>-20,6</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>-17,97%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,37%</t>
+          <t>-21,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,0%</t>
+          <t>-45,28%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 14,33</t>
+          <t>-15,77; -2,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 15,64</t>
+          <t>-14,84; -2,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,78; 25,78</t>
+          <t>-33,41; -11,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,0; 33,68</t>
+          <t>-27,69; -5,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,29; 36,55</t>
+          <t>-31,39; -6,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-62,62; 81,93</t>
+          <t>-68,57; -27,92</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-9,8</t>
+          <t>-10,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,49</t>
+          <t>-15,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-17,66</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-17,97%</t>
+          <t>-19,83%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-21,4%</t>
+          <t>-34,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-39,31%</t>
+          <t>-2,43%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,29; -3,03</t>
+          <t>-21,33; 0,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,93; -3,69</t>
+          <t>-25,8; -5,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,57; -9,28</t>
+          <t>-15,03; 12,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-28,37; -6,46</t>
+          <t>-36,46; 1,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-33,48; -8,6</t>
+          <t>-51,14; -12,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-54,24; -21,83</t>
+          <t>-40,79; 59,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,49</t>
+          <t>-8,71</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-15,6</t>
+          <t>-10,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-13,7</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-19,83%</t>
+          <t>-16,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-34,45%</t>
+          <t>-23,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,88%</t>
+          <t>-33,37%</t>
         </is>
       </c>
     </row>
@@ -882,127 +882,46 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,38; 0,6</t>
+          <t>-13,93; -3,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,1; -6,1</t>
+          <t>-15,38; -5,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 12,14</t>
+          <t>-23,69; -5,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,34; 1,01</t>
+          <t>-24,6; -7,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,34; -14,29</t>
+          <t>-32,25; -13,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,98; 56,39</t>
+          <t>-53,73; -14,83</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-8,65</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-10,57</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-12,26</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-16,1%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-23,31%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-29,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-13,9; -3,91</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-15,95; -5,29</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-19,33; -4,92</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-24,72; -7,57</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-33,01; -11,86</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-43,34; -12,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
